--- a/周栩睿/指标体系 最终.xlsx
+++ b/周栩睿/指标体系 最终.xlsx
@@ -42,6 +42,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>生产力（30%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月生产上榜视频数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月上榜视频数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月生产上榜频道总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月上榜频道数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月生产上榜视频数-月上榜视频数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月生产上榜频道数-月上榜频道数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来影响（10%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热度（60%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>月观看数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,75 +114,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>月视频上榜天数占比（上榜天数/本月天数）*100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互动(第一次上榜数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>月有效互动[（月喜欢+月不喜欢+月评论）/月观看]*100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产力（30%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月生产上榜视频数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月上榜视频数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月视频上榜天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月生产上榜频道总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>频道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月上榜频道数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>频道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月生产上榜视频数-月上榜视频数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月生产上榜频道数-月上榜频道数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未来影响（10%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热度（60%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,14 +189,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,16 +481,17 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.9140625" customWidth="1"/>
     <col min="2" max="2" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="49.58203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.08203125" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="7" width="9.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -500,24 +501,24 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5">
         <v>0.15</v>
@@ -525,12 +526,12 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5">
         <v>0.15</v>
@@ -538,14 +539,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5">
         <v>0.05</v>
@@ -553,12 +554,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
         <v>0.05</v>
@@ -566,12 +567,12 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5">
         <v>0.1</v>
@@ -579,12 +580,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5">
         <v>0.1</v>
@@ -592,10 +593,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5">
         <v>0.1</v>
@@ -603,10 +604,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5">
         <v>0.1</v>
@@ -614,10 +615,10 @@
     </row>
     <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>0.1</v>
@@ -625,14 +626,14 @@
     </row>
     <row r="11" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5">
         <v>0.05</v>
@@ -640,14 +641,14 @@
     </row>
     <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="10">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8">
         <v>0.05</v>
       </c>
     </row>
@@ -668,14 +669,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:A12"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>